--- a/db.xlsx
+++ b/db.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -44,22 +44,49 @@
     <t xml:space="preserve">皮卡丘</t>
   </si>
   <si>
+    <t xml:space="preserve">雷丘 </t>
+  </si>
+  <si>
     <t xml:space="preserve">皮丘</t>
   </si>
   <si>
     <t xml:space="preserve">1.png</t>
   </si>
   <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.png</t>
   </si>
   <si>
+    <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">圖片四</t>
   </si>
   <si>
     <t xml:space="preserve">4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.png</t>
   </si>
 </sst>
 </file>
@@ -69,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK TC"/>
@@ -90,11 +117,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK TC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,16 +161,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -175,7 +193,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -224,13 +242,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -242,6 +260,9 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -250,37 +271,67 @@
       <c r="B2" s="1" t="n">
         <v>189</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="bekachu" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="妙蛙種子" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="皮卡丘" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,12 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
-    <t xml:space="preserve">小胖</t>
+    <t xml:space="preserve">妙蛙種子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妙蛙草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妙蛙花</t>
   </si>
   <si>
     <t xml:space="preserve">年紀</t>
@@ -35,12 +41,51 @@
     <t xml:space="preserve">圖片一</t>
   </si>
   <si>
+    <t xml:space="preserve">1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">圖片二</t>
   </si>
   <si>
+    <t xml:space="preserve">2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">圖片三</t>
   </si>
   <si>
+    <t xml:space="preserve">3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">皮卡丘</t>
   </si>
   <si>
@@ -53,40 +98,7 @@
     <t xml:space="preserve">1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">5.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片四</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.png</t>
   </si>
 </sst>
 </file>
@@ -187,10 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -202,34 +214,87 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>8787</v>
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
@@ -244,94 +309,94 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="妙蛙種子" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="皮卡丘" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="小火龍" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,11 +22,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
+    <t xml:space="preserve">皮卡丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷丘 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年紀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">妙蛙種子</t>
   </si>
   <si>
@@ -35,70 +96,22 @@
     <t xml:space="preserve">妙蛙花</t>
   </si>
   <si>
-    <t xml:space="preserve">年紀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片一</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">5.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片二</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片三</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.png</t>
   </si>
   <si>
-    <t xml:space="preserve">7.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片四</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">皮卡丘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷丘 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">皮丘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.jpeg</t>
+    <t xml:space="preserve">小火龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火恐龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">噴火龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.jpeg</t>
   </si>
 </sst>
 </file>
@@ -201,11 +214,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -310,10 +323,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -377,6 +390,114 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -11,6 +11,7 @@
     <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="小火龍" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="傑尼龜" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -87,6 +88,15 @@
     <t xml:space="preserve">12.png</t>
   </si>
   <si>
+    <t xml:space="preserve">攻擊力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防禦力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生命力</t>
+  </si>
+  <si>
     <t xml:space="preserve">妙蛙種子</t>
   </si>
   <si>
@@ -112,6 +122,15 @@
   </si>
   <si>
     <t xml:space="preserve">1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">傑尼龜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡咪龜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水箭龜</t>
   </si>
 </sst>
 </file>
@@ -212,13 +231,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -302,6 +321,48 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -320,26 +381,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -389,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -410,6 +471,48 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -428,26 +531,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -518,6 +621,198 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="小火龍" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="傑尼龜" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="火雉雞" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -131,6 +132,15 @@
   </si>
   <si>
     <t xml:space="preserve">水箭龜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火雉雞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">力壯雞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火焰雞</t>
   </si>
 </sst>
 </file>
@@ -237,7 +247,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -324,44 +334,44 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -387,7 +397,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -474,44 +484,44 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -533,11 +543,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -624,44 +634,44 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -687,7 +697,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -774,44 +784,194 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>4</v>
       </c>
     </row>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="小火龍" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="傑尼龜" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="火雉雞" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="咚咚鼠" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">火焰雞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咚咚鼠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpeg</t>
   </si>
 </sst>
 </file>
@@ -247,7 +254,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -397,7 +404,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -547,7 +554,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -697,7 +704,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -843,11 +850,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -897,6 +904,156 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="傑尼龜" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="火雉雞" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="咚咚鼠" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="果然翁" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -148,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">果然翁</t>
   </si>
 </sst>
 </file>
@@ -157,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK TC"/>
@@ -178,6 +182,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK TC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,12 +231,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,7 +267,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -404,7 +417,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -554,7 +567,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -704,7 +717,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -854,7 +867,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1000,11 +1013,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1040,6 +1053,156 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="火雉雞" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="咚咚鼠" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="果然翁" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="伊布" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="45">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -152,6 +153,15 @@
   </si>
   <si>
     <t xml:space="preserve">果然翁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊布家族</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpg</t>
   </si>
 </sst>
 </file>
@@ -267,7 +277,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -417,7 +427,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -567,7 +577,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -717,7 +727,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -867,7 +877,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1017,7 +1027,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1163,11 +1173,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1176,10 +1186,10 @@
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1217,6 +1227,156 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,17 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="小火龍" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="傑尼龜" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="火雉雞" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="咚咚鼠" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="果然翁" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="伊布" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="大岩蛇" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="黏黏寶" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="皮卡丘" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="妙蛙種子" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="小火龍" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="傑尼龜" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="火雉雞" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="咚咚鼠" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="果然翁" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="伊布" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,11 +29,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="51">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
+    <t xml:space="preserve">大岩石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大綱蛇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼蛇王</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年紀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖片四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻擊力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防禦力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生命力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黏黏寶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黏美伊兒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黏美露龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">皮卡丘</t>
   </si>
   <si>
@@ -41,66 +127,6 @@
     <t xml:space="preserve">皮丘</t>
   </si>
   <si>
-    <t xml:space="preserve">年紀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片一</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片二</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片三</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圖片四</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻擊力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防禦力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生命力</t>
-  </si>
-  <si>
     <t xml:space="preserve">妙蛙種子</t>
   </si>
   <si>
@@ -113,9 +139,6 @@
     <t xml:space="preserve">1.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">3.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">小火龍</t>
   </si>
   <si>
@@ -123,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">噴火龍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">傑尼龜</t>
@@ -171,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK TC"/>
@@ -192,11 +212,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK TC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,16 +256,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,11 +284,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -341,6 +352,156 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -424,10 +585,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -574,10 +735,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -612,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -640,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -727,20 +888,20 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -790,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -874,10 +1035,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -912,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -940,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1024,10 +1185,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1037,10 +1198,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1076,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1174,23 +1335,23 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1226,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1240,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1323,24 +1484,24 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1376,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1390,7 +1551,157 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="大岩蛇" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,9 +15,11 @@
     <sheet name="小火龍" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="傑尼龜" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="火雉雞" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="咚咚鼠" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="果然翁" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="伊布" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="火焰猴" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="咚咚鼠" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="果然翁" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="伊布" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="球球海獅" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -166,6 +168,15 @@
     <t xml:space="preserve">火焰雞</t>
   </si>
   <si>
+    <t xml:space="preserve">小火猴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猛火猴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烈焰猴</t>
+  </si>
+  <si>
     <t xml:space="preserve">咚咚鼠</t>
   </si>
   <si>
@@ -182,6 +193,18 @@
   </si>
   <si>
     <t xml:space="preserve">2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">球球海獅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花樣海獅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西獅海壬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.gif</t>
   </si>
 </sst>
 </file>
@@ -284,11 +307,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -435,23 +458,173 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +660,157 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -588,7 +911,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -738,7 +1061,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -888,7 +1211,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1038,7 +1361,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1188,7 +1511,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1338,7 +1661,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1485,10 +1808,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1498,10 +1821,10 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1537,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1551,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1635,23 +1958,23 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1687,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
